--- a/data/initial_data_observations/2017-2019-Participation-by-TotalAvgScores.xlsx
+++ b/data/initial_data_observations/2017-2019-Participation-by-TotalAvgScores.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rileydrobertson/DSI/projects/project_1/data/initial_data_observations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2AFD89B-1362-3E4C-A304-8366571F0754}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16A97BC4-F9FD-3840-93A8-0C5AE3599E71}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="32400" windowHeight="25540" activeTab="2" xr2:uid="{22602E77-F462-CF43-A71A-43FCD27D4B9C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="32400" windowHeight="25540" activeTab="3" xr2:uid="{22602E77-F462-CF43-A71A-43FCD27D4B9C}"/>
   </bookViews>
   <sheets>
     <sheet name="2017" sheetId="1" r:id="rId1"/>
@@ -531,7 +531,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -541,6 +541,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2776,7 +2779,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6B698A0-8950-2743-B934-CA9B2102CCAC}">
   <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
@@ -3723,29 +3726,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5C097E4-69D0-A542-84C7-37F10728A615}">
   <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I60" sqref="I60"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" customWidth="1"/>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="4" width="26.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="7" t="s">
         <v>58</v>
       </c>
     </row>
